--- a/Spine_Projects/01_input_data/01_input_raw/synthetic_methane_gas/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/synthetic_methane_gas/Model_Data_Base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/luc_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/jet_fuel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/synthetic_methane_gas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E69A2DAC-8568-4E7F-AF0F-832EFD8CFB3B}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23605CCC-CC1E-40F7-902F-BE343B503D70}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-22815" yWindow="-21720" windowWidth="51840" windowHeight="21240" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,40 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="CIQWBGuid" hidden="1">"3f70d648-fbe2-4237-a956-cf23c7c75a94"</definedName>
+    <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.51.3510.3078"" }"</definedName>
+    <definedName name="IQ_CH">110000</definedName>
+    <definedName name="IQ_CQ">5000</definedName>
+    <definedName name="IQ_CY">10000</definedName>
+    <definedName name="IQ_DAILY">500000</definedName>
+    <definedName name="IQ_DNTM" hidden="1">700000</definedName>
+    <definedName name="IQ_FH">100000</definedName>
+    <definedName name="IQ_FQ">500</definedName>
+    <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
+    <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
+    <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
+    <definedName name="IQ_FWD_FY" hidden="1">1001</definedName>
+    <definedName name="IQ_FWD_FY1" hidden="1">1002</definedName>
+    <definedName name="IQ_FWD_FY2" hidden="1">1003</definedName>
+    <definedName name="IQ_FWD_Q" hidden="1">501</definedName>
+    <definedName name="IQ_FWD_Q1" hidden="1">502</definedName>
+    <definedName name="IQ_FWD_Q2" hidden="1">503</definedName>
+    <definedName name="IQ_FY">1000</definedName>
+    <definedName name="IQ_LATESTK" hidden="1">1000</definedName>
+    <definedName name="IQ_LATESTQ" hidden="1">500</definedName>
+    <definedName name="IQ_LTM">2000</definedName>
+    <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
+    <definedName name="IQ_MONTH">15000</definedName>
+    <definedName name="IQ_MTD" hidden="1">800000</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">45429.7589699074</definedName>
+    <definedName name="IQ_NTM">6000</definedName>
+    <definedName name="IQ_QTD" hidden="1">750000</definedName>
+    <definedName name="IQ_TODAY" hidden="1">0</definedName>
+    <definedName name="IQ_WEEK">50000</definedName>
+    <definedName name="IQ_YTD">3000</definedName>
+    <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -316,15 +350,15 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -350,15 +384,21 @@
       <sheetName val="Connections"/>
       <sheetName val="Storages"/>
       <sheetName val="Drop_Down"/>
+      <sheetName val="Model_Data_Base (2)"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,7 +432,7 @@
     <tableColumn id="10" xr3:uid="{ACDE4024-BCA2-4145-B3BC-1A5A08F3EA7D}" name="Relation_In_In"/>
     <tableColumn id="11" xr3:uid="{8AEC88A1-B64A-43A2-AC89-3B27AB4ACAD7}" name="Relation_In_Out"/>
     <tableColumn id="25" xr3:uid="{95F69D80-80E7-42BD-B42F-59F3C3DC485B}" name="Relation_Out_Out"/>
-    <tableColumn id="12" xr3:uid="{F1A83AF0-CF23-4B00-9076-4E28DF8DAFD3}" name="Cost_invest" dataDxfId="0">
+    <tableColumn id="12" xr3:uid="{F1A83AF0-CF23-4B00-9076-4E28DF8DAFD3}" name="Cost_invest" dataDxfId="2">
       <calculatedColumnFormula>[1]!Table1[[#This Row],[Cap_Output1_existing]]*0.56</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="24" xr3:uid="{4D171E04-3F62-4131-BD43-B8A8D03B8530}" name="units_on_cost"/>
@@ -424,7 +464,7 @@
     <tableColumn id="3" xr3:uid="{0B221EED-10BC-4C34-AC5E-37A826B1E8AE}" name="Input1"/>
     <tableColumn id="4" xr3:uid="{13095F0A-BCF6-40A3-B029-60B11214B154}" name="Input2"/>
     <tableColumn id="5" xr3:uid="{4C6B3E52-C4A2-4D67-B50B-9DAA089E0399}" name="Output1"/>
-    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Output2" dataDxfId="2"/>
+    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Output2" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{5DF4D35D-AD4C-4648-BC90-B2BA8F975A09}" name="Connection_type"/>
     <tableColumn id="15" xr3:uid="{C0BCA9EF-0E20-40E5-9820-0EA6AB1DE457}" name="Cap_Input1_existing"/>
     <tableColumn id="14" xr3:uid="{D4F16D16-99DE-47DA-B08A-6DD56FEBC7A4}" name="Cap_Input1_max"/>
@@ -456,7 +496,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:N5" totalsRowShown="0">
   <autoFilter ref="A1:N5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{AEAA1B51-84C1-491F-81D5-7757B30BDCCD}" name="Object_type"/>
     <tableColumn id="6" xr3:uid="{FA5F8582-61FC-4A96-9E8D-E08E92F1962D}" name="value_before"/>
     <tableColumn id="5" xr3:uid="{58DBFD58-A0D2-4B31-B639-19B1628ABAC8}" name="value_start"/>
@@ -957,9 +997,9 @@
       <c r="L2">
         <v>304</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="e">
         <f>[1]!Table1[[#This Row],[Cap_Output1_existing]]*0.56</f>
-        <v>170.24</v>
+        <v>#REF!</v>
       </c>
       <c r="AD2">
         <v>1.29</v>
@@ -978,27 +1018,27 @@
       <c r="AQ2" s="4"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="AB3">
+      <c r="AB3" t="e">
         <f>[1]!Table1[[#This Row],[Cap_Output1_existing]]*0.56</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="AB4">
+      <c r="AB4" t="e">
         <f>[1]!Table1[[#This Row],[Cap_Output1_existing]]*0.56</f>
-        <v>56.000000000000007</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="AB5">
+      <c r="AB5" t="e">
         <f>[1]!Table1[[#This Row],[Cap_Output1_existing]]*0.56</f>
-        <v>29.120000000000005</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="AB6">
+      <c r="AB6" t="e">
         <f>[1]!Table1[[#This Row],[Cap_Output1_existing]]*0.56</f>
-        <v>29.120000000000005</v>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
